--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="大模型" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
   <si>
     <t>x2</t>
   </si>
@@ -38,141 +38,153 @@
     <t>gpu512x512</t>
   </si>
   <si>
+    <t>bisenetv1_mambaout_tiny</t>
+  </si>
+  <si>
+    <t>131/117</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface hgnetv2_b6</t>
+  </si>
+  <si>
+    <t>bisenetv1_blueface_rdnet_tiny</t>
+  </si>
+  <si>
+    <t>fastefficientbisenet_mambaout_femto</t>
+  </si>
+  <si>
+    <t>topformer_hgnetv2_b5</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface hgnetv2_b5</t>
+  </si>
+  <si>
+    <t>bisenetv1_mambaout_femto</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface tiny vit_21m</t>
+  </si>
+  <si>
+    <t>bisenetv1_blueface_convnext_tiny_dinov3</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface fastvit sa24</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface_hgnetv2_b4</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface repvit_ m1</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface_next_vit_ small</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface_efficientnet_ b4</t>
+  </si>
+  <si>
+    <t>pidnet l</t>
+  </si>
+  <si>
+    <t>fastefficientbisenet_fasternet_t2</t>
+  </si>
+  <si>
+    <t>fastefficientbisenet_efficientnet_b3</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface_ mobilenetv4_ medium</t>
+  </si>
+  <si>
+    <t>fastefficientbisenet_convnext_tiny_dinov3</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface_efficientnet_ b3</t>
+  </si>
+  <si>
+    <t>pidnet m</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface_regnety_040</t>
+  </si>
+  <si>
+    <t>fastefficientbisenet_efficientnetv2_b3</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface_efficientnet_ lite3</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface_efficientnetv2_ b3</t>
+  </si>
+  <si>
+    <t>segnext_small</t>
+  </si>
+  <si>
+    <t>fastefficientformerseg_efficientnetv2_b3</t>
+  </si>
+  <si>
+    <t>31.7/29.8</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface_cspdarknet</t>
+  </si>
+  <si>
+    <t>topformer_efficientnet_lite1</t>
+  </si>
+  <si>
+    <t>pidnet s</t>
+  </si>
+  <si>
+    <t>dsnet_head128</t>
+  </si>
+  <si>
+    <t>pidnet s_transformer</t>
+  </si>
+  <si>
+    <t>topformer_efficientnet_b0</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface semnasnet100</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface repghostnet 200</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface_hgnetv2_b0</t>
+  </si>
+  <si>
+    <t>topformer_mobilenetv4_small</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface ghostnetv2_ 100</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface repvit_ m2</t>
+  </si>
+  <si>
+    <t>segnext_tiny</t>
+  </si>
+  <si>
+    <t>fastefficientbisenet_fasternet_t0</t>
+  </si>
+  <si>
+    <t>bisenetvl_blueface repghostnet 080</t>
+  </si>
+  <si>
+    <t>fastefficientbisenet_startnet_s4</t>
+  </si>
+  <si>
+    <t>fastefficientbisenet_repghostnet_200</t>
+  </si>
+  <si>
+    <t>fastefficientbisenet_repvit_m1_1</t>
+  </si>
+  <si>
     <t>3070/FP32</t>
   </si>
   <si>
     <t>3070/FP16</t>
   </si>
   <si>
-    <t>bisenetv1_mambaout_tiny</t>
-  </si>
-  <si>
-    <t>131/117</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface hgnetv2_b6</t>
-  </si>
-  <si>
-    <t>bisenetv1_blueface_rdnet_tiny</t>
-  </si>
-  <si>
-    <t>topformer_hgnetv2_b5</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface hgnetv2_b5</t>
-  </si>
-  <si>
-    <t>bisenetv1_mambaout_femto</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface tiny vit_21m</t>
-  </si>
-  <si>
-    <t>bisenetv1_blueface_convnext_tiny_dinov3</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface fastvit sa24</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface_hgnetv2_b4</t>
-  </si>
-  <si>
-    <t>fastefficientbisenet_mambaout_femto</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface repvit_ m1</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface_next_vit_ small</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface_efficientnet_ b4</t>
-  </si>
-  <si>
-    <t>pidnet l</t>
-  </si>
-  <si>
-    <t>fastefficientbisenet_fasternet_t2</t>
-  </si>
-  <si>
-    <t>fastefficientbisenet_efficientnet_b3</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface_ mobilenetv4_ medium</t>
-  </si>
-  <si>
-    <t>fastefficientbisenet_convnext_tiny_dinov3</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface_efficientnet_ b3</t>
-  </si>
-  <si>
-    <t>pidnet m</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface_regnety_040</t>
-  </si>
-  <si>
-    <t>fastefficientbisenet_efficientnetv2_b3</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface_efficientnet_ lite3</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface_efficientnetv2_ b3</t>
-  </si>
-  <si>
-    <t>segnext_small</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface_cspdarknet</t>
-  </si>
-  <si>
-    <t>topformer_efficientnet_lite1</t>
-  </si>
-  <si>
-    <t>pidnet s</t>
-  </si>
-  <si>
-    <t>dsnet_head128</t>
-  </si>
-  <si>
-    <t>pidnet s_transformer</t>
-  </si>
-  <si>
-    <t>topformer_efficientnet_b0</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface semnasnet100</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface repghostnet 200</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface_hgnetv2_b0</t>
-  </si>
-  <si>
-    <t>topformer_mobilenetv4_small</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface ghostnetv2_ 100</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface repvit_ m2</t>
-  </si>
-  <si>
-    <t>segnext_tiny</t>
-  </si>
-  <si>
-    <t>bisenetvl_blueface repghostnet 080</t>
-  </si>
-  <si>
-    <t>fastefficientbisenet_fasternet_t0</t>
-  </si>
-  <si>
-    <t>fastefficientformerseg_efficientnetv2_b3</t>
-  </si>
-  <si>
     <t>mixloss</t>
   </si>
   <si>
@@ -299,7 +311,7 @@
     <t>fastefficientbisenet_efficientnetv1_b3</t>
   </si>
   <si>
-    <t>2.14/2.34</t>
+    <t>2.14/2.34/2.29</t>
   </si>
   <si>
     <t>pp_liteseg_2</t>
@@ -324,6 +336,9 @@
   </si>
   <si>
     <t>lpsnet_s</t>
+  </si>
+  <si>
+    <t>fastefficientbisenet_starnet_s4</t>
   </si>
   <si>
     <t>4080S/fp16/320x320</t>
@@ -397,10 +412,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -411,19 +426,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -431,21 +437,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,16 +454,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,37 +469,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -532,10 +486,42 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -550,6 +536,35 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -576,25 +591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,13 +615,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,7 +645,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -642,31 +657,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -684,13 +681,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,7 +699,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -726,25 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,7 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,16 +786,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,11 +815,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -813,32 +834,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -867,16 +862,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -885,141 +900,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1031,6 +1043,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1350,12 +1368,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H43" sqref="H43"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1366,11 +1384,10 @@
     <col min="4" max="4" width="10.4444444444444" customWidth="1"/>
     <col min="6" max="8" width="9.66666666666667"/>
     <col min="9" max="9" width="11.4444444444444" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="12.1111111111111" customWidth="1"/>
+    <col min="10" max="12" width="9.66666666666667"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1386,16 +1403,10 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>0.779897</v>
@@ -1416,12 +1427,12 @@
         <v>0.862894</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0.777614</v>
@@ -1444,7 +1455,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>0.772429</v>
@@ -1459,175 +1470,187 @@
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5">
+        <v>0.770065</v>
+      </c>
+      <c r="C5">
+        <v>0.88428</v>
+      </c>
+      <c r="D5">
+        <v>0.850913</v>
+      </c>
+      <c r="E5"/>
+      <c r="F5">
+        <v>0.768479</v>
+      </c>
+      <c r="G5">
+        <v>0.863736</v>
+      </c>
+      <c r="H5">
+        <v>0.868333</v>
+      </c>
+      <c r="I5">
+        <v>49</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.772044</v>
+      </c>
+      <c r="K5" s="9">
+        <v>0.881188</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.856513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
         <v>0.767732</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>0.871419</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>0.861395</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>0.77104</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>0.867631</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>0.868188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>0.766295</v>
-      </c>
-      <c r="C6">
-        <v>0.885472</v>
-      </c>
-      <c r="D6">
-        <v>0.84466</v>
-      </c>
-      <c r="F6">
-        <v>0.774369</v>
-      </c>
-      <c r="G6">
-        <v>0.893263</v>
-      </c>
-      <c r="H6">
-        <v>0.848467</v>
-      </c>
-      <c r="I6">
-        <v>85.6</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.76426</v>
+        <v>0.766295</v>
       </c>
       <c r="C7">
-        <v>0.885592</v>
+        <v>0.885472</v>
       </c>
       <c r="D7">
-        <v>0.842315</v>
+        <v>0.84466</v>
+      </c>
+      <c r="F7">
+        <v>0.774369</v>
+      </c>
+      <c r="G7">
+        <v>0.893263</v>
+      </c>
+      <c r="H7">
+        <v>0.848467</v>
       </c>
       <c r="I7">
-        <v>58.84</v>
+        <v>85.6</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.762569</v>
+        <v>0.76426</v>
       </c>
       <c r="C8">
-        <v>0.884121</v>
+        <v>0.885592</v>
       </c>
       <c r="D8">
-        <v>0.841114</v>
+        <v>0.842315</v>
       </c>
       <c r="I8">
-        <v>115</v>
+        <v>58.84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>0.762569</v>
+      </c>
+      <c r="C9">
+        <v>0.884121</v>
+      </c>
+      <c r="D9">
+        <v>0.841114</v>
+      </c>
+      <c r="I9">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.76245</v>
+      </c>
+      <c r="C10">
+        <v>0.881312</v>
+      </c>
+      <c r="D10">
+        <v>0.84433</v>
+      </c>
+      <c r="I10">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>0.76245</v>
-      </c>
-      <c r="C9">
-        <v>0.881312</v>
-      </c>
-      <c r="D9">
-        <v>0.84433</v>
-      </c>
-      <c r="I9">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" t="s">
+      <c r="B11">
+        <v>0.760919</v>
+      </c>
+      <c r="C11">
+        <v>0.874303</v>
+      </c>
+      <c r="D11">
+        <v>0.848517</v>
+      </c>
+    </row>
+    <row r="12" s="9" customFormat="1" spans="1:12">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>0.760919</v>
-      </c>
-      <c r="C10">
-        <v>0.874303</v>
-      </c>
-      <c r="D10">
-        <v>0.848517</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
+      <c r="B12">
         <v>0.760356</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>0.884887</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>0.836608</v>
-      </c>
-      <c r="F11">
-        <v>0.763411</v>
-      </c>
-      <c r="G11">
-        <v>0.890017</v>
-      </c>
-      <c r="H11">
-        <v>0.837235</v>
-      </c>
-    </row>
-    <row r="12" s="10" customFormat="1" spans="1:11">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>0.770065</v>
-      </c>
-      <c r="C12">
-        <v>0.88428</v>
-      </c>
-      <c r="D12">
-        <v>0.850913</v>
       </c>
       <c r="E12"/>
       <c r="F12">
-        <v>0.768479</v>
+        <v>0.763411</v>
       </c>
       <c r="G12">
-        <v>0.863736</v>
+        <v>0.890017</v>
       </c>
       <c r="H12">
-        <v>0.868333</v>
-      </c>
-      <c r="I12">
-        <v>49</v>
-      </c>
+        <v>0.837235</v>
+      </c>
+      <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
+      <c r="L12"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0.756666</v>
@@ -1639,30 +1662,28 @@
         <v>0.834607</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="3">
+    <row r="14" spans="1:9">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
         <v>0.754777</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="2">
         <v>0.863089</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>0.850826</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="10" t="s">
-        <v>21</v>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="9" t="s">
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0.754334</v>
@@ -1685,11 +1706,10 @@
       <c r="I15">
         <v>69.85</v>
       </c>
-      <c r="K15" s="10"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>0.752736</v>
@@ -1701,9 +1721,9 @@
         <v>0.829591</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0.749931</v>
@@ -1726,10 +1746,19 @@
       <c r="I17">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17">
+        <v>0.758375</v>
+      </c>
+      <c r="K17">
+        <v>0.885717</v>
+      </c>
+      <c r="L17">
+        <v>0.836166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0.74761</v>
@@ -1752,11 +1781,10 @@
       <c r="I18">
         <v>37</v>
       </c>
-      <c r="J18" s="10"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0.746577</v>
@@ -1770,7 +1798,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>0.744622</v>
@@ -1786,35 +1814,35 @@
       </c>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="7">
+      <c r="A21" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="6">
         <v>0.744506</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="6">
         <v>0.860528</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="6">
         <v>0.839851</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
         <v>0.751574</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="6">
         <v>0.868257</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="6">
         <v>0.841741</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <v>57.3</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0.744324</v>
@@ -1828,7 +1856,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0.743591</v>
@@ -1840,9 +1868,9 @@
         <v>0.827411</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24">
         <v>0.741733</v>
@@ -1865,10 +1893,19 @@
       <c r="I24">
         <v>30.7</v>
       </c>
+      <c r="J24">
+        <v>0.753258</v>
+      </c>
+      <c r="K24">
+        <v>0.86073</v>
+      </c>
+      <c r="L24">
+        <v>0.850527</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B25">
         <v>0.741629</v>
@@ -1881,8 +1918,8 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="10" t="s">
-        <v>32</v>
+      <c r="A26" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="B26">
         <v>0.740506</v>
@@ -1908,7 +1945,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0.739805</v>
@@ -1920,223 +1957,226 @@
         <v>0.82678</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28">
+        <v>0.738491</v>
+      </c>
+      <c r="C28">
+        <v>0.865018</v>
+      </c>
+      <c r="D28">
+        <v>0.827704</v>
+      </c>
+      <c r="F28">
+        <v>0.74363</v>
+      </c>
+      <c r="G28">
+        <v>0.855144</v>
+      </c>
+      <c r="H28">
+        <v>0.843659</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
         <v>34</v>
       </c>
-      <c r="B28">
+      <c r="B29">
         <v>0.738214</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>0.86428</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>0.826714</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
         <v>35</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>0.735718</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>0.877324</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>0.812306</v>
       </c>
-      <c r="I29">
+      <c r="I30">
         <v>16.73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30">
-        <v>0.732523</v>
-      </c>
-      <c r="C30">
-        <v>0.867589</v>
-      </c>
-      <c r="D30">
-        <v>0.818167</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.732164</v>
+        <v>0.732523</v>
       </c>
       <c r="C31">
-        <v>0.860681</v>
+        <v>0.867589</v>
       </c>
       <c r="D31">
-        <v>0.823889</v>
+        <v>0.818167</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32">
+        <v>0.732164</v>
+      </c>
+      <c r="C32">
+        <v>0.860681</v>
+      </c>
+      <c r="D32">
+        <v>0.823889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B32">
+      <c r="B33">
         <v>0.730829</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>0.869431</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>0.814548</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
-      <c r="A33" t="s">
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
         <v>39</v>
       </c>
-      <c r="B33">
+      <c r="B34">
         <v>0.726804</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>0.857101</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>0.819385</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34">
-        <v>0.723994</v>
-      </c>
-      <c r="C34">
-        <v>0.857618</v>
-      </c>
-      <c r="D34">
-        <v>0.81522</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35">
+        <v>0.723994</v>
+      </c>
+      <c r="C35">
+        <v>0.857618</v>
+      </c>
+      <c r="D35">
+        <v>0.81522</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>0.719465</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>0.86807</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>0.800449</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
         <v>42</v>
       </c>
-      <c r="B36">
+      <c r="B37">
         <v>0.716961</v>
       </c>
-      <c r="C36">
+      <c r="C37">
         <v>0.870251</v>
       </c>
-      <c r="D36">
+      <c r="D37">
         <v>0.794472</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37">
-        <v>0.71694</v>
-      </c>
-      <c r="C37">
-        <v>0.861888</v>
-      </c>
-      <c r="D37">
-        <v>0.80138</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.713546</v>
+        <v>0.71694</v>
       </c>
       <c r="C38">
-        <v>0.869784</v>
+        <v>0.861888</v>
       </c>
       <c r="D38">
-        <v>0.791984</v>
+        <v>0.80138</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.711791</v>
+        <v>0.713546</v>
       </c>
       <c r="C39">
-        <v>0.866464</v>
+        <v>0.869784</v>
       </c>
       <c r="D39">
-        <v>0.791122</v>
+        <v>0.791984</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.711791</v>
+      </c>
+      <c r="C40">
+        <v>0.866464</v>
+      </c>
+      <c r="D40">
+        <v>0.791122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
         <v>46</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>0.711113</v>
       </c>
-      <c r="C40">
+      <c r="C41">
         <v>0.846254</v>
       </c>
-      <c r="D40">
+      <c r="D41">
         <v>0.806975</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
-      <c r="A41" t="s">
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
         <v>47</v>
-      </c>
-      <c r="B41">
-        <v>0.694979</v>
-      </c>
-      <c r="C41">
-        <v>0.865616</v>
-      </c>
-      <c r="D41">
-        <v>0.771683</v>
-      </c>
-      <c r="F41">
-        <v>0.697399</v>
-      </c>
-      <c r="G41">
-        <v>0.868533</v>
-      </c>
-      <c r="H41">
-        <v>0.771671</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" t="s">
-        <v>48</v>
       </c>
       <c r="B42">
         <v>0.699765</v>
@@ -2159,36 +2199,66 @@
       <c r="I42">
         <v>9.74</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42">
+        <v>0.713066</v>
+      </c>
+      <c r="K42">
+        <v>0.852715</v>
+      </c>
+      <c r="L42">
+        <v>0.805148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.694979</v>
+      </c>
+      <c r="C43">
+        <v>0.865616</v>
+      </c>
+      <c r="D43">
+        <v>0.771683</v>
+      </c>
+      <c r="F43">
+        <v>0.697399</v>
+      </c>
+      <c r="G43">
+        <v>0.868533</v>
+      </c>
+      <c r="H43">
+        <v>0.771671</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="B43">
-        <v>0.738491</v>
-      </c>
-      <c r="C43">
-        <v>0.865018</v>
-      </c>
-      <c r="D43">
-        <v>0.827704</v>
-      </c>
-      <c r="F43">
-        <v>0.74363</v>
-      </c>
-      <c r="G43">
-        <v>0.855144</v>
-      </c>
-      <c r="H43">
-        <v>0.843659</v>
-      </c>
-      <c r="I43">
-        <v>31.7</v>
+      <c r="I44">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="I45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I46">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A12:K41">
-    <sortCondition ref="B12:B41" descending="1"/>
+  <sortState ref="A1:N43">
+    <sortCondition ref="B1:B43" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2200,7 +2270,7 @@
   <sheetPr/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A30" sqref="$A30:$XFD30"/>
     </sheetView>
   </sheetViews>
@@ -2219,7 +2289,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2235,18 +2305,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="H1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B2">
         <v>0.7731</v>
@@ -2265,8 +2335,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
-        <v>52</v>
+      <c r="A3" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="B3">
         <v>0.76</v>
@@ -2279,8 +2349,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="4" t="s">
-        <v>53</v>
+      <c r="A4" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B4">
         <v>0.7558</v>
@@ -2296,32 +2366,32 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6">
         <v>0.744506</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>0.860528</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="6">
         <v>0.839851</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="6">
         <v>57.3</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="6">
         <v>7.56</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>4.11</v>
       </c>
-      <c r="H5" s="7"/>
+      <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="5" t="s">
-        <v>54</v>
+      <c r="A6" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B6">
         <v>0.7432</v>
@@ -2338,7 +2408,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B7">
         <v>0.7426</v>
@@ -2352,7 +2422,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B8">
         <v>0.742</v>
@@ -2368,8 +2438,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="5" t="s">
-        <v>57</v>
+      <c r="A9" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B9">
         <v>0.7406</v>
@@ -2384,12 +2454,12 @@
         <v>2.64</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="5" t="s">
-        <v>59</v>
+      <c r="A10" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B10">
         <v>0.7379</v>
@@ -2407,9 +2477,9 @@
         <v>0.8666</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>60</v>
+    <row r="11" s="2" customFormat="1" spans="1:9">
+      <c r="A11" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="B11">
         <v>0.7358</v>
@@ -2429,8 +2499,8 @@
       <c r="I11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>61</v>
+      <c r="A12" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B12">
         <v>0.7308</v>
@@ -2447,7 +2517,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B13">
         <v>0.7294</v>
@@ -2460,29 +2530,29 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="3">
+      <c r="A14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="2">
         <v>0.7271</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2">
         <v>8.9</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>1.81</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>1</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="4" t="s">
-        <v>64</v>
+      <c r="A15" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="B15">
         <v>0.726864</v>
@@ -2504,32 +2574,32 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="A16" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="8">
         <v>0.722361</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="8">
         <v>0.867663</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>0.803904</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>17.4</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="8">
         <v>2.29</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="8">
         <v>1.41</v>
       </c>
-      <c r="H16" s="9"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B17">
         <v>0.7215</v>
@@ -2541,9 +2611,9 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" ht="12" customHeight="1" spans="1:9">
-      <c r="A18" s="5" t="s">
-        <v>67</v>
+    <row r="18" s="2" customFormat="1" ht="12" customHeight="1" spans="1:9">
+      <c r="A18" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B18">
         <v>0.7161</v>
@@ -2564,7 +2634,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B19">
         <v>0.7138</v>
@@ -2577,8 +2647,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="4" t="s">
-        <v>69</v>
+      <c r="A20" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B20">
         <v>0.710494</v>
@@ -2601,7 +2671,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B21">
         <v>0.7101</v>
@@ -2614,8 +2684,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="5" t="s">
-        <v>71</v>
+      <c r="A22" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B22">
         <v>0.71</v>
@@ -2631,8 +2701,8 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="5" t="s">
-        <v>72</v>
+      <c r="A23" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="B23">
         <v>0.7089</v>
@@ -2646,11 +2716,11 @@
       <c r="G23">
         <v>0.94</v>
       </c>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:10">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="1:10">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B24">
         <v>0.707672</v>
@@ -2669,8 +2739,8 @@
       <c r="J24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="4" t="s">
-        <v>74</v>
+      <c r="A25" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B25">
         <v>0.707574</v>
@@ -2693,7 +2763,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B26">
         <v>0.7066</v>
@@ -2706,8 +2776,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="4" t="s">
-        <v>76</v>
+      <c r="A27" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B27">
         <v>0.698648</v>
@@ -2727,31 +2797,31 @@
       <c r="G27">
         <v>1.64</v>
       </c>
-      <c r="J27" s="3"/>
+      <c r="J27" s="2"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="3">
+      <c r="A28" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="2">
         <v>0.683513</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
         <v>10.4</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1.72</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>1.33</v>
       </c>
-      <c r="H28" s="3"/>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="4" t="s">
-        <v>78</v>
+      <c r="A29" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B29">
         <v>0.683125</v>
@@ -2774,7 +2844,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>0.6737</v>
@@ -2787,8 +2857,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="4" t="s">
-        <v>80</v>
+      <c r="A31" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B31">
         <v>0.673307</v>
@@ -2810,29 +2880,29 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B32" s="3">
+      <c r="A32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="2">
         <v>0.667316</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3">
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
         <v>4.9</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>0.8</v>
       </c>
-      <c r="G32" s="3">
+      <c r="G32" s="2">
         <v>0.67</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="4" t="s">
-        <v>82</v>
+      <c r="A33" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B33">
         <v>0.660027</v>
@@ -2854,8 +2924,8 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="4" t="s">
-        <v>83</v>
+      <c r="A34" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B34">
         <v>0.65747</v>
@@ -2877,28 +2947,28 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35" s="9">
+      <c r="A35" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="8">
         <v>0</v>
       </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9">
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8">
         <v>4.3</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="8">
         <v>0.78</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="8">
         <v>0.65</v>
       </c>
-      <c r="H35" s="9"/>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>0.712137</v>
@@ -2915,7 +2985,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B37">
         <v>0.715039</v>
@@ -2944,8 +3014,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -2957,18 +3027,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
         <v>5.24</v>
@@ -2976,7 +3046,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="1">
         <v>5.17</v>
@@ -2984,7 +3054,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1">
         <v>4.53</v>
@@ -2992,7 +3062,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>3.4</v>
@@ -3000,7 +3070,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1">
         <v>2.92</v>
@@ -3008,7 +3078,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1">
         <v>2.52</v>
@@ -3016,23 +3086,23 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="1">
         <v>2.22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
+      <c r="A9" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B10" s="1">
         <v>1.6</v>
@@ -3040,7 +3110,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1">
         <v>1.58</v>
@@ -3048,7 +3118,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1">
         <v>1.54</v>
@@ -3056,7 +3126,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1">
         <v>1.45</v>
@@ -3064,7 +3134,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1">
         <v>1.41</v>
@@ -3072,7 +3142,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B15" s="1">
         <v>1.37</v>
@@ -3080,7 +3150,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>1.33</v>
@@ -3088,7 +3158,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1">
         <v>1.14</v>
@@ -3096,7 +3166,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B18" s="1">
         <v>1.07</v>
@@ -3104,15 +3174,15 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B19" s="1">
         <v>0.989</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>48</v>
+      <c r="A20" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B20" s="1">
         <v>0.89</v>
@@ -3120,23 +3190,35 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B21" s="1">
         <v>0.799</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="A23" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2.02</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="A24" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.35</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
@@ -3204,15 +3286,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B2">
         <v>1.12</v>
@@ -3220,7 +3302,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3228,7 +3310,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>3.26</v>
@@ -3236,7 +3318,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>4.6</v>
@@ -3244,7 +3326,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>3.26</v>
@@ -3252,7 +3334,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>0.49</v>
@@ -3260,7 +3342,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>4.2</v>
@@ -3268,7 +3350,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>1.74</v>
@@ -3276,7 +3358,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B10">
         <v>1.14</v>
@@ -3306,18 +3388,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B2" s="1">
         <v>2.7</v>
@@ -3328,7 +3410,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B3" s="1">
         <v>2.47</v>
@@ -3336,7 +3418,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1">
         <v>2.12</v>
@@ -3344,7 +3426,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1">
         <v>2.06</v>
@@ -3352,7 +3434,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B6" s="1">
         <v>1.37</v>
@@ -3360,7 +3442,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B7" s="1">
         <v>1.26</v>
@@ -3368,7 +3450,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B8" s="1">
         <v>0.83</v>
@@ -3376,7 +3458,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B9" s="1">
         <v>0.69</v>
@@ -3384,7 +3466,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B10" s="1">
         <v>0.58</v>
@@ -3392,7 +3474,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B11" s="1">
         <v>0.45</v>

--- a/测试数据.xlsx
+++ b/测试数据.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="大模型" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="133">
   <si>
     <t>x2</t>
   </si>
@@ -86,6 +86,9 @@
     <t>pidnet l</t>
   </si>
   <si>
+    <t>fastefficientbisenet_startnet_s4</t>
+  </si>
+  <si>
     <t>fastefficientbisenet_fasternet_t2</t>
   </si>
   <si>
@@ -95,6 +98,9 @@
     <t>bisenetvl_blueface_ mobilenetv4_ medium</t>
   </si>
   <si>
+    <t>fastefficientbisenet_inceptionnext_atto</t>
+  </si>
+  <si>
     <t>fastefficientbisenet_convnext_tiny_dinov3</t>
   </si>
   <si>
@@ -119,6 +125,9 @@
     <t>segnext_small</t>
   </si>
   <si>
+    <t>fastefficientbisenet_startnet_s1</t>
+  </si>
+  <si>
     <t>fastefficientformerseg_efficientnetv2_b3</t>
   </si>
   <si>
@@ -131,6 +140,9 @@
     <t>topformer_efficientnet_lite1</t>
   </si>
   <si>
+    <t>fastefficientbisenet_repvit_m1_1</t>
+  </si>
+  <si>
     <t>pidnet s</t>
   </si>
   <si>
@@ -155,6 +167,9 @@
     <t>topformer_mobilenetv4_small</t>
   </si>
   <si>
+    <t>fastefficientbisenet_shvit_s1</t>
+  </si>
+  <si>
     <t>bisenetvl_blueface ghostnetv2_ 100</t>
   </si>
   <si>
@@ -164,21 +179,18 @@
     <t>segnext_tiny</t>
   </si>
   <si>
+    <t>fastefficientbisenet_repghostnet_200</t>
+  </si>
+  <si>
     <t>fastefficientbisenet_fasternet_t0</t>
   </si>
   <si>
+    <t>fastefficientbisenet_repghostnet_080</t>
+  </si>
+  <si>
     <t>bisenetvl_blueface repghostnet 080</t>
   </si>
   <si>
-    <t>fastefficientbisenet_startnet_s4</t>
-  </si>
-  <si>
-    <t>fastefficientbisenet_repghostnet_200</t>
-  </si>
-  <si>
-    <t>fastefficientbisenet_repvit_m1_1</t>
-  </si>
-  <si>
     <t>3070/FP32</t>
   </si>
   <si>
@@ -305,13 +317,16 @@
     <t>512x512</t>
   </si>
   <si>
+    <t>2.14/2.34/2.29</t>
+  </si>
+  <si>
     <t>bisenetv1_efficientnet_b3</t>
   </si>
   <si>
     <t>fastefficientbisenet_efficientnetv1_b3</t>
   </si>
   <si>
-    <t>2.14/2.34/2.29</t>
+    <t>fastefficientbisenet_starnet_s4</t>
   </si>
   <si>
     <t>pp_liteseg_2</t>
@@ -326,6 +341,9 @@
     <t>pidnet</t>
   </si>
   <si>
+    <t>fastefficientbisenet_starnet_s1</t>
+  </si>
+  <si>
     <t>pp_liteseg_1</t>
   </si>
   <si>
@@ -336,9 +354,6 @@
   </si>
   <si>
     <t>lpsnet_s</t>
-  </si>
-  <si>
-    <t>fastefficientbisenet_starnet_s4</t>
   </si>
   <si>
     <t>4080S/fp16/320x320</t>
@@ -570,7 +585,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +601,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,140 +921,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1043,9 +1067,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1368,12 +1390,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
@@ -1384,7 +1406,9 @@
     <col min="4" max="4" width="10.4444444444444" customWidth="1"/>
     <col min="6" max="8" width="9.66666666666667"/>
     <col min="9" max="9" width="11.4444444444444" customWidth="1"/>
-    <col min="10" max="12" width="9.66666666666667"/>
+    <col min="10" max="11" width="9.66666666666667"/>
+    <col min="12" max="12" width="15.1851851851852" customWidth="1"/>
+    <col min="13" max="13" width="13.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1471,7 +1495,7 @@
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" t="s">
+      <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B5">
@@ -1496,13 +1520,13 @@
       <c r="I5">
         <v>49</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="10">
         <v>0.772044</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="10">
         <v>0.881188</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="10">
         <v>0.856513</v>
       </c>
     </row>
@@ -1620,7 +1644,7 @@
         <v>0.848517</v>
       </c>
     </row>
-    <row r="12" s="9" customFormat="1" spans="1:12">
+    <row r="12" s="10" customFormat="1" spans="1:12">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1663,26 +1687,26 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>0.754777</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="3">
         <v>0.863089</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="3">
         <v>0.850826</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>19</v>
       </c>
       <c r="B15">
@@ -1721,186 +1745,198 @@
         <v>0.829591</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
+    <row r="17" spans="1:9">
+      <c r="A17" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B17">
+        <v>0.75113</v>
+      </c>
+      <c r="C17">
+        <v>0.881855</v>
+      </c>
+      <c r="D17">
+        <v>0.828633</v>
+      </c>
+      <c r="F17">
+        <v>0.755163</v>
+      </c>
+      <c r="G17">
+        <v>0.873179</v>
+      </c>
+      <c r="H17">
+        <v>0.840891</v>
+      </c>
+      <c r="I17">
+        <v>31.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
         <v>0.749931</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>0.889719</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>0.823178</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>0.754295</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>0.867716</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>0.846821</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>21.2</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>0.758375</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>0.885717</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>0.836166</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18">
+    <row r="19" spans="1:9">
+      <c r="A19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19">
         <v>0.74761</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>0.864012</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>0.840153</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>0.743141</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>0.870605</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>0.827508</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19">
-        <v>0.746577</v>
-      </c>
-      <c r="C19">
-        <v>0.866982</v>
-      </c>
-      <c r="D19">
-        <v>0.836866</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
+        <v>0.746577</v>
+      </c>
+      <c r="C20">
+        <v>0.866982</v>
+      </c>
+      <c r="D20">
+        <v>0.836866</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>0.744687</v>
+      </c>
+      <c r="C21">
+        <v>0.880547</v>
+      </c>
+      <c r="D21">
+        <v>0.822196</v>
+      </c>
+      <c r="F21">
+        <v>0.751311</v>
+      </c>
+      <c r="G21">
+        <v>0.882099</v>
+      </c>
+      <c r="H21">
+        <v>0.830119</v>
+      </c>
+      <c r="I21">
+        <v>14.5</v>
+      </c>
+      <c r="J21">
+        <v>0.754584</v>
+      </c>
+      <c r="K21">
+        <v>0.879138</v>
+      </c>
+      <c r="L21">
+        <v>0.836511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
         <v>0.744622</v>
       </c>
-      <c r="C20">
+      <c r="C22">
         <v>0.870637</v>
       </c>
-      <c r="D20">
+      <c r="D22">
         <v>0.830575</v>
       </c>
-      <c r="I20">
+      <c r="I22">
         <v>88.3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="6">
+    <row r="23" spans="1:9">
+      <c r="A23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="7">
         <v>0.744506</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C23" s="7">
         <v>0.860528</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D23" s="7">
         <v>0.839851</v>
       </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6">
+      <c r="E23" s="7"/>
+      <c r="F23" s="7">
         <v>0.751574</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G23" s="7">
         <v>0.868257</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H23" s="7">
         <v>0.841741</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I23" s="7">
         <v>57.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>0.744324</v>
-      </c>
-      <c r="C22">
-        <v>0.88753</v>
-      </c>
-      <c r="D22">
-        <v>0.817014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23">
-        <v>0.743591</v>
-      </c>
-      <c r="C23">
-        <v>0.872448</v>
-      </c>
-      <c r="D23">
-        <v>0.827411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>0.741733</v>
+        <v>0.744324</v>
       </c>
       <c r="C24">
-        <v>0.864976</v>
+        <v>0.88753</v>
       </c>
       <c r="D24">
-        <v>0.831163</v>
-      </c>
-      <c r="F24">
-        <v>0.745726</v>
-      </c>
-      <c r="G24">
-        <v>0.859719</v>
-      </c>
-      <c r="H24">
-        <v>0.840692</v>
-      </c>
-      <c r="I24">
-        <v>30.7</v>
-      </c>
-      <c r="J24">
-        <v>0.753258</v>
-      </c>
-      <c r="K24">
-        <v>0.86073</v>
-      </c>
-      <c r="L24">
-        <v>0.850527</v>
+        <v>0.817014</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1908,39 +1944,48 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>0.741629</v>
+        <v>0.743591</v>
       </c>
       <c r="C25">
-        <v>0.86836</v>
+        <v>0.872448</v>
       </c>
       <c r="D25">
-        <v>0.827182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="9" t="s">
+        <v>0.827411</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>0.740506</v>
+        <v>0.741733</v>
       </c>
       <c r="C26">
-        <v>0.865591</v>
+        <v>0.864976</v>
       </c>
       <c r="D26">
-        <v>0.829161</v>
+        <v>0.831163</v>
       </c>
       <c r="F26">
-        <v>0.751954</v>
+        <v>0.745726</v>
       </c>
       <c r="G26">
-        <v>0.869312</v>
+        <v>0.859719</v>
       </c>
       <c r="H26">
-        <v>0.841616</v>
+        <v>0.840692</v>
       </c>
       <c r="I26">
-        <v>50.5</v>
+        <v>30.7</v>
+      </c>
+      <c r="J26">
+        <v>0.753258</v>
+      </c>
+      <c r="K26">
+        <v>0.86073</v>
+      </c>
+      <c r="L26">
+        <v>0.850527</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1948,84 +1993,105 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>0.739805</v>
+        <v>0.741629</v>
       </c>
       <c r="C27">
-        <v>0.868165</v>
+        <v>0.86836</v>
       </c>
       <c r="D27">
-        <v>0.82678</v>
+        <v>0.827182</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" t="s">
+      <c r="A28" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>0.738491</v>
+        <v>0.740506</v>
       </c>
       <c r="C28">
-        <v>0.865018</v>
+        <v>0.865591</v>
       </c>
       <c r="D28">
-        <v>0.827704</v>
+        <v>0.829161</v>
       </c>
       <c r="F28">
-        <v>0.74363</v>
+        <v>0.751954</v>
       </c>
       <c r="G28">
-        <v>0.855144</v>
+        <v>0.869312</v>
       </c>
       <c r="H28">
-        <v>0.843659</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>33</v>
+        <v>0.841616</v>
+      </c>
+      <c r="I28">
+        <v>50.5</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29">
+        <v>0.739805</v>
+      </c>
+      <c r="C29">
+        <v>0.868165</v>
+      </c>
+      <c r="D29">
+        <v>0.82678</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
-        <v>0.738214</v>
-      </c>
-      <c r="C29">
-        <v>0.86428</v>
-      </c>
-      <c r="D29">
-        <v>0.826714</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
+      <c r="B30">
+        <v>0.739755</v>
+      </c>
+      <c r="C30">
+        <v>0.85671</v>
+      </c>
+      <c r="D30">
+        <v>0.83676</v>
+      </c>
+      <c r="I30">
+        <v>17.97</v>
+      </c>
+      <c r="J30">
+        <v>0.749136</v>
+      </c>
+      <c r="K30">
+        <v>0.852683</v>
+      </c>
+      <c r="L30">
+        <v>0.854449</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>0.735718</v>
-      </c>
-      <c r="C30">
-        <v>0.877324</v>
-      </c>
-      <c r="D30">
-        <v>0.812306</v>
-      </c>
-      <c r="I30">
-        <v>16.73</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" t="s">
+      <c r="B31">
+        <v>0.738491</v>
+      </c>
+      <c r="C31">
+        <v>0.865018</v>
+      </c>
+      <c r="D31">
+        <v>0.827704</v>
+      </c>
+      <c r="F31">
+        <v>0.74363</v>
+      </c>
+      <c r="G31">
+        <v>0.855144</v>
+      </c>
+      <c r="H31">
+        <v>0.843659</v>
+      </c>
+      <c r="I31" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="B31">
-        <v>0.732523</v>
-      </c>
-      <c r="C31">
-        <v>0.867589</v>
-      </c>
-      <c r="D31">
-        <v>0.818167</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -2033,44 +2099,56 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.732164</v>
+        <v>0.738214</v>
       </c>
       <c r="C32">
-        <v>0.860681</v>
+        <v>0.86428</v>
       </c>
       <c r="D32">
-        <v>0.823889</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.826714</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.730829</v>
+        <v>0.735718</v>
       </c>
       <c r="C33">
-        <v>0.869431</v>
+        <v>0.877324</v>
       </c>
       <c r="D33">
-        <v>0.814548</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" t="s">
+        <v>0.812306</v>
+      </c>
+      <c r="I33">
+        <v>16.73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="11" t="s">
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.726804</v>
+        <v>0.734301</v>
       </c>
       <c r="C34">
-        <v>0.857101</v>
+        <v>0.871991</v>
       </c>
       <c r="D34">
-        <v>0.819385</v>
+        <v>0.816322</v>
       </c>
       <c r="I34">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="J34">
+        <v>0.750739</v>
+      </c>
+      <c r="K34">
+        <v>0.873047</v>
+      </c>
+      <c r="L34">
+        <v>0.836097</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -2078,13 +2156,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.723994</v>
+        <v>0.732523</v>
       </c>
       <c r="C35">
-        <v>0.857618</v>
+        <v>0.867589</v>
       </c>
       <c r="D35">
-        <v>0.81522</v>
+        <v>0.818167</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -2092,44 +2170,44 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.719465</v>
+        <v>0.732164</v>
       </c>
       <c r="C36">
-        <v>0.86807</v>
+        <v>0.860681</v>
       </c>
       <c r="D36">
-        <v>0.800449</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.823889</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.716961</v>
+        <v>0.730829</v>
       </c>
       <c r="C37">
-        <v>0.870251</v>
+        <v>0.869431</v>
       </c>
       <c r="D37">
-        <v>0.794472</v>
-      </c>
-      <c r="I37">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>0.814548</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.71694</v>
+        <v>0.726804</v>
       </c>
       <c r="C38">
-        <v>0.861888</v>
+        <v>0.857101</v>
       </c>
       <c r="D38">
-        <v>0.80138</v>
+        <v>0.819385</v>
+      </c>
+      <c r="I38">
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -2137,13 +2215,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.713546</v>
+        <v>0.723994</v>
       </c>
       <c r="C39">
-        <v>0.869784</v>
+        <v>0.857618</v>
       </c>
       <c r="D39">
-        <v>0.791984</v>
+        <v>0.81522</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -2151,114 +2229,227 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.711791</v>
+        <v>0.719465</v>
       </c>
       <c r="C40">
-        <v>0.866464</v>
+        <v>0.86807</v>
       </c>
       <c r="D40">
-        <v>0.791122</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.800449</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.711113</v>
+        <v>0.716961</v>
       </c>
       <c r="C41">
-        <v>0.846254</v>
+        <v>0.870251</v>
       </c>
       <c r="D41">
-        <v>0.806975</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
+        <v>0.794472</v>
+      </c>
+      <c r="I41">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.699765</v>
+        <v>0.71694</v>
       </c>
       <c r="C42">
-        <v>0.849119</v>
+        <v>0.861888</v>
       </c>
       <c r="D42">
-        <v>0.788358</v>
-      </c>
-      <c r="F42">
-        <v>0.698915</v>
-      </c>
-      <c r="G42">
-        <v>0.847132</v>
-      </c>
-      <c r="H42">
-        <v>0.788943</v>
-      </c>
-      <c r="I42">
-        <v>9.74</v>
-      </c>
-      <c r="J42">
-        <v>0.713066</v>
-      </c>
-      <c r="K42">
-        <v>0.852715</v>
-      </c>
-      <c r="L42">
-        <v>0.805148</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" t="s">
+        <v>0.80138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" s="11" t="s">
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.694979</v>
+        <v>0.716365</v>
       </c>
       <c r="C43">
-        <v>0.865616</v>
+        <v>0.85087</v>
       </c>
       <c r="D43">
-        <v>0.771683</v>
-      </c>
-      <c r="F43">
-        <v>0.697399</v>
-      </c>
-      <c r="G43">
-        <v>0.868533</v>
-      </c>
-      <c r="H43">
-        <v>0.771671</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.81112</v>
+      </c>
+      <c r="I43">
+        <v>7.71</v>
+      </c>
+      <c r="J43">
+        <v>0.736053</v>
+      </c>
+      <c r="K43">
+        <v>0.857934</v>
+      </c>
+      <c r="L43">
+        <v>0.831937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>49</v>
       </c>
-      <c r="I44">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="10" t="s">
+      <c r="B44">
+        <v>0.713546</v>
+      </c>
+      <c r="C44">
+        <v>0.869784</v>
+      </c>
+      <c r="D44">
+        <v>0.791984</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
         <v>50</v>
       </c>
-      <c r="I45">
+      <c r="B45">
+        <v>0.711791</v>
+      </c>
+      <c r="C45">
+        <v>0.866464</v>
+      </c>
+      <c r="D45">
+        <v>0.791122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.711113</v>
+      </c>
+      <c r="C46">
+        <v>0.846254</v>
+      </c>
+      <c r="D46">
+        <v>0.806975</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.710599</v>
+      </c>
+      <c r="C47">
+        <v>0.868084</v>
+      </c>
+      <c r="D47">
+        <v>0.789526</v>
+      </c>
+      <c r="I47">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I46">
-        <v>31</v>
+      <c r="J47">
+        <v>0.716838</v>
+      </c>
+      <c r="K47">
+        <v>0.848993</v>
+      </c>
+      <c r="L47">
+        <v>0.813434</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.699765</v>
+      </c>
+      <c r="C48">
+        <v>0.849119</v>
+      </c>
+      <c r="D48">
+        <v>0.788358</v>
+      </c>
+      <c r="F48">
+        <v>0.698915</v>
+      </c>
+      <c r="G48">
+        <v>0.847132</v>
+      </c>
+      <c r="H48">
+        <v>0.788943</v>
+      </c>
+      <c r="I48">
+        <v>9.74</v>
+      </c>
+      <c r="J48">
+        <v>0.713066</v>
+      </c>
+      <c r="K48">
+        <v>0.852715</v>
+      </c>
+      <c r="L48">
+        <v>0.805148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49">
+        <v>0.699049</v>
+      </c>
+      <c r="C49">
+        <v>0.859332</v>
+      </c>
+      <c r="D49">
+        <v>0.781447</v>
+      </c>
+      <c r="I49">
+        <v>12.94</v>
+      </c>
+      <c r="J49">
+        <v>0.691986</v>
+      </c>
+      <c r="K49">
+        <v>0.839438</v>
+      </c>
+      <c r="L49">
+        <v>0.788699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50">
+        <v>0.694979</v>
+      </c>
+      <c r="C50">
+        <v>0.865616</v>
+      </c>
+      <c r="D50">
+        <v>0.771683</v>
+      </c>
+      <c r="F50">
+        <v>0.697399</v>
+      </c>
+      <c r="G50">
+        <v>0.868533</v>
+      </c>
+      <c r="H50">
+        <v>0.771671</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:N43">
-    <sortCondition ref="B1:B43" descending="1"/>
+  <sortState ref="A1:L50">
+    <sortCondition ref="B1:B50" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2270,8 +2461,8 @@
   <sheetPr/>
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A30" sqref="$A30:$XFD30"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8"/>
@@ -2289,7 +2480,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2305,18 +2496,18 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B2">
         <v>0.7731</v>
@@ -2335,8 +2526,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="4" t="s">
-        <v>56</v>
+      <c r="A3" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="B3">
         <v>0.76</v>
@@ -2349,8 +2540,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="3" t="s">
-        <v>57</v>
+      <c r="A4" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B4">
         <v>0.7558</v>
@@ -2366,32 +2557,32 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="7">
         <v>0.744506</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>0.860528</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="7">
         <v>0.839851</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>57.3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>7.56</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>4.11</v>
       </c>
-      <c r="H5" s="6"/>
+      <c r="H5" s="7"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="4" t="s">
-        <v>58</v>
+      <c r="A6" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="B6">
         <v>0.7432</v>
@@ -2408,7 +2599,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>0.7426</v>
@@ -2422,7 +2613,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>0.742</v>
@@ -2438,8 +2629,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="4" t="s">
-        <v>61</v>
+      <c r="A9" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="B9">
         <v>0.7406</v>
@@ -2454,12 +2645,12 @@
         <v>2.64</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="4" t="s">
-        <v>63</v>
+      <c r="A10" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="B10">
         <v>0.7379</v>
@@ -2477,9 +2668,9 @@
         <v>0.8666</v>
       </c>
     </row>
-    <row r="11" s="2" customFormat="1" spans="1:9">
-      <c r="A11" s="4" t="s">
-        <v>64</v>
+    <row r="11" s="3" customFormat="1" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>68</v>
       </c>
       <c r="B11">
         <v>0.7358</v>
@@ -2499,8 +2690,8 @@
       <c r="I11"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
-        <v>65</v>
+      <c r="A12" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="B12">
         <v>0.7308</v>
@@ -2517,7 +2708,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B13">
         <v>0.7294</v>
@@ -2530,29 +2721,29 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="2">
+      <c r="A14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="3">
         <v>0.7271</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
         <v>8.9</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>1.81</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="3">
         <v>1</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="3" t="s">
-        <v>68</v>
+      <c r="A15" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B15">
         <v>0.726864</v>
@@ -2574,32 +2765,32 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="8">
+      <c r="A16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="9">
         <v>0.722361</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="9">
         <v>0.867663</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="9">
         <v>0.803904</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="9">
         <v>17.4</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="9">
         <v>2.29</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="9">
         <v>1.41</v>
       </c>
-      <c r="H16" s="8"/>
+      <c r="H16" s="9"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B17">
         <v>0.7215</v>
@@ -2611,9 +2802,9 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="18" s="2" customFormat="1" ht="12" customHeight="1" spans="1:9">
-      <c r="A18" s="4" t="s">
-        <v>71</v>
+    <row r="18" s="3" customFormat="1" ht="12" customHeight="1" spans="1:9">
+      <c r="A18" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B18">
         <v>0.7161</v>
@@ -2634,7 +2825,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B19">
         <v>0.7138</v>
@@ -2647,8 +2838,8 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="3" t="s">
-        <v>73</v>
+      <c r="A20" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B20">
         <v>0.710494</v>
@@ -2671,7 +2862,7 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B21">
         <v>0.7101</v>
@@ -2684,8 +2875,8 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="4" t="s">
-        <v>75</v>
+      <c r="A22" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="B22">
         <v>0.71</v>
@@ -2701,8 +2892,8 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="4" t="s">
-        <v>76</v>
+      <c r="A23" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="B23">
         <v>0.7089</v>
@@ -2716,11 +2907,11 @@
       <c r="G23">
         <v>0.94</v>
       </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:10">
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:10">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B24">
         <v>0.707672</v>
@@ -2739,8 +2930,8 @@
       <c r="J24"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="3" t="s">
-        <v>78</v>
+      <c r="A25" s="4" t="s">
+        <v>82</v>
       </c>
       <c r="B25">
         <v>0.707574</v>
@@ -2763,7 +2954,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B26">
         <v>0.7066</v>
@@ -2776,8 +2967,8 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="3" t="s">
-        <v>80</v>
+      <c r="A27" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="B27">
         <v>0.698648</v>
@@ -2797,31 +2988,31 @@
       <c r="G27">
         <v>1.64</v>
       </c>
-      <c r="J27" s="2"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="2">
+      <c r="A28" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="3">
         <v>0.683513</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2">
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3">
         <v>10.4</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>1.72</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="3">
         <v>1.33</v>
       </c>
-      <c r="H28" s="2"/>
+      <c r="H28" s="3"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="3" t="s">
-        <v>82</v>
+      <c r="A29" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="B29">
         <v>0.683125</v>
@@ -2844,7 +3035,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B30">
         <v>0.6737</v>
@@ -2857,8 +3048,8 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="3" t="s">
-        <v>84</v>
+      <c r="A31" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B31">
         <v>0.673307</v>
@@ -2880,29 +3071,29 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B32" s="2">
+      <c r="A32" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="3">
         <v>0.667316</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3">
         <v>4.9</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>0.8</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="3">
         <v>0.67</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="3" t="s">
-        <v>86</v>
+      <c r="A33" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="B33">
         <v>0.660027</v>
@@ -2924,8 +3115,8 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="3" t="s">
-        <v>87</v>
+      <c r="A34" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B34">
         <v>0.65747</v>
@@ -2947,28 +3138,28 @@
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B35" s="8">
+      <c r="A35" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="9">
         <v>0</v>
       </c>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8">
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9">
         <v>4.3</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="9">
         <v>0.78</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="9">
         <v>0.65</v>
       </c>
-      <c r="H35" s="8"/>
+      <c r="H35" s="9"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B36">
         <v>0.712137</v>
@@ -2985,7 +3176,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B37">
         <v>0.715039</v>
@@ -3014,8 +3205,8 @@
   <sheetPr/>
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="13.8" outlineLevelCol="2"/>
@@ -3027,214 +3218,230 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1">
-        <v>5.24</v>
+        <v>35</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>5.17</v>
+        <v>5.24</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1">
-        <v>4.53</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1">
-        <v>3.4</v>
+        <v>4.53</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>2.92</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B7" s="1">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1">
-        <v>2.22</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>96</v>
+        <v>39</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.35</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B10" s="1">
-        <v>1.6</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>97</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1">
-        <v>1.58</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1">
-        <v>1.54</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B13" s="1">
-        <v>1.45</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B14" s="1">
-        <v>1.41</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B15" s="1">
-        <v>1.37</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="B16" s="1">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B17" s="1">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1">
-        <v>1.07</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="1" t="s">
-        <v>103</v>
+      <c r="A19" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B19" s="1">
-        <v>0.989</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
-        <v>0.89</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B21" s="1">
-        <v>0.799</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>105</v>
+      <c r="A22" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B22" s="1">
-        <v>1.81</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="B23" s="1">
-        <v>2.02</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="B24" s="1">
-        <v>2.35</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
+      <c r="A25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.989</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.98</v>
+      </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
+      <c r="A27" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
+      <c r="A28" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.799</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1"/>
@@ -3261,8 +3468,8 @@
       <c r="B34" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:C21">
-    <sortCondition ref="B2:B21" descending="1"/>
+  <sortState ref="A2:B28">
+    <sortCondition ref="B2:B28" descending="1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3286,15 +3493,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1.12</v>
@@ -3302,7 +3509,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3310,7 +3517,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>3.26</v>
@@ -3318,7 +3525,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>4.6</v>
@@ -3326,7 +3533,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>3.26</v>
@@ -3334,7 +3541,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>0.49</v>
@@ -3342,7 +3549,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B8">
         <v>4.2</v>
@@ -3350,7 +3557,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B9">
         <v>1.74</v>
@@ -3358,7 +3565,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B10">
         <v>1.14</v>
@@ -3388,18 +3595,18 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1">
         <v>2.7</v>
@@ -3410,7 +3617,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B3" s="1">
         <v>2.47</v>
@@ -3418,7 +3625,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B4" s="1">
         <v>2.12</v>
@@ -3426,7 +3633,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1">
         <v>2.06</v>
@@ -3434,7 +3641,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B6" s="1">
         <v>1.37</v>
@@ -3442,7 +3649,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B7" s="1">
         <v>1.26</v>
@@ -3450,7 +3657,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B8" s="1">
         <v>0.83</v>
@@ -3458,7 +3665,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B9" s="1">
         <v>0.69</v>
@@ -3466,7 +3673,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B10" s="1">
         <v>0.58</v>
@@ -3474,7 +3681,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B11" s="1">
         <v>0.45</v>
